--- a/QuizEntendimientoDatos/BaseDatos.xlsx
+++ b/QuizEntendimientoDatos/BaseDatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\APEREZN2023\01-Formacion\02SegundoTrimestre2023\MachineLearning - 2472365 - ADSO\05-MaterialEducativo\CienciaDatosSENA\QuizEntendimientoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409485E1-D437-4664-AC57-9D2147E3FB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF922E-2925-47D5-A2DA-611D7921C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{389CAF3A-D839-45F3-AAF0-E67FE974DBD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{389CAF3A-D839-45F3-AAF0-E67FE974DBD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="213">
   <si>
     <t>REFERENCIA</t>
   </si>
@@ -634,9 +634,6 @@
   </si>
   <si>
     <t>OTROS</t>
-  </si>
-  <si>
-    <t>PRECIOVENTA</t>
   </si>
   <si>
     <t>Bogot</t>
@@ -690,7 +687,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -737,7 +734,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1055,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7C1923-36CB-4CEA-9301-D2CFAE9D71E3}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,7 +1064,7 @@
     <col min="6" max="6" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,11 +1080,8 @@
       <c r="E1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1103,11 +1097,8 @@
       <c r="E2" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="1">
-        <v>86900000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1123,11 +1114,8 @@
       <c r="E3" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="1">
-        <v>86900000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1143,11 +1131,8 @@
       <c r="E4" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="1">
-        <v>100100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1163,11 +1148,8 @@
       <c r="E5" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="1">
-        <v>88000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1183,11 +1165,8 @@
       <c r="E6" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="1">
-        <v>99000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1203,11 +1182,8 @@
       <c r="E7" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="1">
-        <v>113300000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1223,11 +1199,8 @@
       <c r="E8" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="1">
-        <v>107800000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1243,16 +1216,13 @@
       <c r="E9" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="1">
-        <v>86900000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10">
         <v>2000</v>
@@ -1263,11 +1233,8 @@
       <c r="E10" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="1">
-        <v>97900000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1283,11 +1250,8 @@
       <c r="E11" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="1">
-        <v>81400000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -1303,11 +1267,8 @@
       <c r="E12" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="1">
-        <v>111100000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1323,11 +1284,8 @@
       <c r="E13" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="1">
-        <v>135300000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -1343,11 +1301,8 @@
       <c r="E14" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="1">
-        <v>117700000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -1363,16 +1318,13 @@
       <c r="E15" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="1">
-        <v>125400000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16">
         <v>2024</v>
@@ -1381,13 +1333,10 @@
         <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="1">
-        <v>125400000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -1403,11 +1352,8 @@
       <c r="E17" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="1">
-        <v>103400000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -1423,11 +1369,8 @@
       <c r="E18" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="1">
-        <v>89100000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -1443,11 +1386,8 @@
       <c r="E19" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="1">
-        <v>85800000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -1463,11 +1403,8 @@
       <c r="E20" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="1">
-        <v>94600000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -1483,11 +1420,8 @@
       <c r="E21" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="1">
-        <v>85800000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1503,11 +1437,8 @@
       <c r="E22" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="1">
-        <v>94600000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -1524,7 +1455,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -1540,11 +1471,8 @@
       <c r="E24" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="1">
-        <v>119900000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -1560,11 +1488,8 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="1">
-        <v>92400000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -1580,11 +1505,8 @@
       <c r="E26" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="1">
-        <v>103400000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -1600,11 +1522,8 @@
       <c r="E27" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="1">
-        <v>81400000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -1620,11 +1539,8 @@
       <c r="E28" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="1">
-        <v>110000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -1640,11 +1556,8 @@
       <c r="E29" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="1">
-        <v>133100000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1661,7 +1574,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -1677,11 +1590,8 @@
       <c r="E31" t="s">
         <v>186</v>
       </c>
-      <c r="F31" s="1">
-        <v>130900000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -1697,11 +1607,8 @@
       <c r="E32" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="1">
-        <v>133100000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1717,11 +1624,8 @@
       <c r="E33" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="1">
-        <v>102300000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -1737,11 +1641,8 @@
       <c r="E34" t="s">
         <v>189</v>
       </c>
-      <c r="F34" s="1">
-        <v>91300000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -1757,11 +1658,8 @@
       <c r="E35" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="1">
-        <v>88000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -1777,11 +1675,8 @@
       <c r="E36" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="1">
-        <v>92400000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -1792,16 +1687,13 @@
         <v>2019</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="1">
-        <v>80300000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -1817,11 +1709,8 @@
       <c r="E38" t="s">
         <v>186</v>
       </c>
-      <c r="F38" s="1">
-        <v>94600000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -1837,11 +1726,8 @@
       <c r="E39" t="s">
         <v>187</v>
       </c>
-      <c r="F39" s="1">
-        <v>123200000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -1857,11 +1743,8 @@
       <c r="E40" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="1">
-        <v>125400000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -1877,11 +1760,8 @@
       <c r="E41" t="s">
         <v>189</v>
       </c>
-      <c r="F41" s="1">
-        <v>104500000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -1897,11 +1777,8 @@
       <c r="E42" t="s">
         <v>190</v>
       </c>
-      <c r="F42" s="1">
-        <v>113300000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -1917,11 +1794,8 @@
       <c r="E43" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="1">
-        <v>84700000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1937,11 +1811,8 @@
       <c r="E44" t="s">
         <v>185</v>
       </c>
-      <c r="F44" s="1">
-        <v>107800000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -1957,11 +1828,8 @@
       <c r="E45" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="1">
-        <v>130900000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -1977,11 +1845,8 @@
       <c r="E46" t="s">
         <v>187</v>
       </c>
-      <c r="F46" s="1">
-        <v>99000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -1997,11 +1862,8 @@
       <c r="E47" t="s">
         <v>188</v>
       </c>
-      <c r="F47" s="1">
-        <v>114400000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -2017,11 +1879,8 @@
       <c r="E48" t="s">
         <v>189</v>
       </c>
-      <c r="F48" s="1">
-        <v>121000000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -2037,11 +1896,8 @@
       <c r="E49" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="1">
-        <v>101200000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -2057,11 +1913,8 @@
       <c r="E50" t="s">
         <v>191</v>
       </c>
-      <c r="F50" s="1">
-        <v>99000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -2077,11 +1930,8 @@
       <c r="E51" t="s">
         <v>185</v>
       </c>
-      <c r="F51" s="1">
-        <v>95700000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -2097,11 +1947,8 @@
       <c r="E52" t="s">
         <v>186</v>
       </c>
-      <c r="F52" s="1">
-        <v>107800000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -2117,11 +1964,8 @@
       <c r="E53" t="s">
         <v>187</v>
       </c>
-      <c r="F53" s="1">
-        <v>85800000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -2135,10 +1979,10 @@
         <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2154,11 +1998,8 @@
       <c r="E55" t="s">
         <v>189</v>
       </c>
-      <c r="F55" s="1">
-        <v>122100000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>140</v>
       </c>
@@ -2174,11 +2015,8 @@
       <c r="E56" t="s">
         <v>190</v>
       </c>
-      <c r="F56" s="1">
-        <v>115500000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -2192,13 +2030,10 @@
         <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
-      </c>
-      <c r="F57" s="1">
-        <v>90200000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>142</v>
       </c>
@@ -2209,16 +2044,13 @@
         <v>2023</v>
       </c>
       <c r="D58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
-      </c>
-      <c r="F58" s="1">
-        <v>93500000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>143</v>
       </c>
@@ -2234,11 +2066,8 @@
       <c r="E59" t="s">
         <v>186</v>
       </c>
-      <c r="F59" s="1">
-        <v>82500000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -2254,11 +2083,8 @@
       <c r="E60" t="s">
         <v>187</v>
       </c>
-      <c r="F60" s="1">
-        <v>106700000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>145</v>
       </c>
@@ -2274,11 +2100,8 @@
       <c r="E61" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="1">
-        <v>132000000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>146</v>
       </c>
@@ -2294,11 +2117,8 @@
       <c r="E62" t="s">
         <v>189</v>
       </c>
-      <c r="F62" s="1">
-        <v>110000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>147</v>
       </c>
@@ -2314,11 +2134,8 @@
       <c r="E63" t="s">
         <v>190</v>
       </c>
-      <c r="F63" s="1">
-        <v>118800000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -2334,11 +2151,8 @@
       <c r="E64" t="s">
         <v>191</v>
       </c>
-      <c r="F64" s="1">
-        <v>123200000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -2354,11 +2168,8 @@
       <c r="E65" t="s">
         <v>185</v>
       </c>
-      <c r="F65" s="1">
-        <v>99000000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2374,11 +2185,8 @@
       <c r="E66" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="1">
-        <v>92400000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -2394,11 +2202,8 @@
       <c r="E67" t="s">
         <v>187</v>
       </c>
-      <c r="F67" s="1">
-        <v>85800000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2414,11 +2219,8 @@
       <c r="E68" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="1">
-        <v>104500000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -2432,13 +2234,10 @@
         <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>212</v>
-      </c>
-      <c r="F69" s="1">
-        <v>94600000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2454,11 +2253,8 @@
       <c r="E70" t="s">
         <v>190</v>
       </c>
-      <c r="F70" s="1">
-        <v>97900000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2474,16 +2270,13 @@
       <c r="E71" t="s">
         <v>191</v>
       </c>
-      <c r="F71" s="1">
-        <v>115500000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72">
         <v>2018</v>
@@ -2494,11 +2287,8 @@
       <c r="E72" t="s">
         <v>185</v>
       </c>
-      <c r="F72" s="1">
-        <v>113300000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2514,11 +2304,8 @@
       <c r="E73" t="s">
         <v>186</v>
       </c>
-      <c r="F73" s="1">
-        <v>92400000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -2534,11 +2321,8 @@
       <c r="E74" t="s">
         <v>187</v>
       </c>
-      <c r="F74" s="1">
-        <v>100100000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -2554,11 +2338,8 @@
       <c r="E75" t="s">
         <v>188</v>
       </c>
-      <c r="F75" s="1">
-        <v>77000000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -2574,11 +2355,8 @@
       <c r="E76" t="s">
         <v>189</v>
       </c>
-      <c r="F76" s="1">
-        <v>111100000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -2594,11 +2372,8 @@
       <c r="E77" t="s">
         <v>190</v>
       </c>
-      <c r="F77" s="1">
-        <v>137500000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -2614,11 +2389,8 @@
       <c r="E78" t="s">
         <v>191</v>
       </c>
-      <c r="F78" s="1">
-        <v>112200000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -2634,11 +2406,8 @@
       <c r="E79" t="s">
         <v>185</v>
       </c>
-      <c r="F79" s="1">
-        <v>124300000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -2654,11 +2423,8 @@
       <c r="E80" t="s">
         <v>186</v>
       </c>
-      <c r="F80" s="1">
-        <v>128700000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -2674,11 +2440,8 @@
       <c r="E81" t="s">
         <v>187</v>
       </c>
-      <c r="F81" s="1">
-        <v>104500000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -2694,11 +2457,8 @@
       <c r="E82" t="s">
         <v>188</v>
       </c>
-      <c r="F82" s="1">
-        <v>97900000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2714,11 +2474,8 @@
       <c r="E83" t="s">
         <v>189</v>
       </c>
-      <c r="F83" s="1">
-        <v>88000000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -2734,11 +2491,8 @@
       <c r="E84" t="s">
         <v>190</v>
       </c>
-      <c r="F84" s="1">
-        <v>90200000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2754,11 +2508,8 @@
       <c r="E85" t="s">
         <v>191</v>
       </c>
-      <c r="F85" s="1">
-        <v>85800000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -2774,11 +2525,8 @@
       <c r="E86" t="s">
         <v>185</v>
       </c>
-      <c r="F86" s="1">
-        <v>89100000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -2794,11 +2542,8 @@
       <c r="E87" t="s">
         <v>186</v>
       </c>
-      <c r="F87" s="1">
-        <v>116600000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -2814,11 +2559,8 @@
       <c r="E88" t="s">
         <v>187</v>
       </c>
-      <c r="F88" s="1">
-        <v>119900000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -2834,11 +2576,8 @@
       <c r="E89" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="1">
-        <v>97900000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -2854,11 +2593,8 @@
       <c r="E90" t="s">
         <v>189</v>
       </c>
-      <c r="F90" s="1">
-        <v>106700000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -2874,11 +2610,8 @@
       <c r="E91" t="s">
         <v>190</v>
       </c>
-      <c r="F91" s="1">
-        <v>75900000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -2894,11 +2627,8 @@
       <c r="E92" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="1">
-        <v>111100000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -2914,11 +2644,8 @@
       <c r="E93" t="s">
         <v>185</v>
       </c>
-      <c r="F93" s="1">
-        <v>137500000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -2934,11 +2661,8 @@
       <c r="E94" t="s">
         <v>186</v>
       </c>
-      <c r="F94" s="1">
-        <v>113300000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -2954,11 +2678,8 @@
       <c r="E95" t="s">
         <v>187</v>
       </c>
-      <c r="F95" s="1">
-        <v>116600000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -2974,11 +2695,8 @@
       <c r="E96" t="s">
         <v>188</v>
       </c>
-      <c r="F96" s="1">
-        <v>112200000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -2994,11 +2712,8 @@
       <c r="E97" t="s">
         <v>189</v>
       </c>
-      <c r="F97" s="1">
-        <v>104500000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -3014,11 +2729,8 @@
       <c r="E98" t="s">
         <v>190</v>
       </c>
-      <c r="F98" s="1">
-        <v>96800000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -3034,11 +2746,8 @@
       <c r="E99" t="s">
         <v>191</v>
       </c>
-      <c r="F99" s="1">
-        <v>85800000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -3049,16 +2758,13 @@
         <v>2000</v>
       </c>
       <c r="D100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E100" t="s">
         <v>185</v>
       </c>
-      <c r="F100" s="1">
-        <v>101200000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -3074,11 +2780,8 @@
       <c r="E101" t="s">
         <v>186</v>
       </c>
-      <c r="F101" s="1">
-        <v>88000000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -3094,11 +2797,8 @@
       <c r="E102" t="s">
         <v>187</v>
       </c>
-      <c r="F102" s="1">
-        <v>89100000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -3114,11 +2814,8 @@
       <c r="E103" t="s">
         <v>188</v>
       </c>
-      <c r="F103" s="1">
-        <v>106700000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>52</v>
       </c>
@@ -3134,11 +2831,8 @@
       <c r="E104" t="s">
         <v>189</v>
       </c>
-      <c r="F104" s="1">
-        <v>111100000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>53</v>
       </c>
@@ -3154,11 +2848,8 @@
       <c r="E105" t="s">
         <v>190</v>
       </c>
-      <c r="F105" s="1">
-        <v>94600000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -3174,11 +2865,8 @@
       <c r="E106" t="s">
         <v>191</v>
       </c>
-      <c r="F106" s="1">
-        <v>110000000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>55</v>
       </c>
@@ -3189,16 +2877,13 @@
         <v>2022</v>
       </c>
       <c r="D107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E107" t="s">
-        <v>200</v>
-      </c>
-      <c r="F107" s="1">
-        <v>85800000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>56</v>
       </c>
@@ -3214,11 +2899,8 @@
       <c r="E108" t="s">
         <v>186</v>
       </c>
-      <c r="F108" s="1">
-        <v>118800000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>57</v>
       </c>
@@ -3234,11 +2916,8 @@
       <c r="E109" t="s">
         <v>187</v>
       </c>
-      <c r="F109" s="1">
-        <v>141900000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -3254,11 +2933,8 @@
       <c r="E110" t="s">
         <v>188</v>
       </c>
-      <c r="F110" s="1">
-        <v>110000000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -3274,11 +2950,8 @@
       <c r="E111" t="s">
         <v>189</v>
       </c>
-      <c r="F111" s="1">
-        <v>116600000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -3294,11 +2967,8 @@
       <c r="E112" t="s">
         <v>190</v>
       </c>
-      <c r="F112" s="1">
-        <v>113300000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -3314,11 +2984,8 @@
       <c r="E113" t="s">
         <v>191</v>
       </c>
-      <c r="F113" s="1">
-        <v>99000000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>62</v>
       </c>
@@ -3334,11 +3001,8 @@
       <c r="E114" t="s">
         <v>185</v>
       </c>
-      <c r="F114" s="1">
-        <v>94600000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -3354,11 +3018,8 @@
       <c r="E115" t="s">
         <v>186</v>
       </c>
-      <c r="F115" s="1">
-        <v>88000000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>64</v>
       </c>
@@ -3374,11 +3035,8 @@
       <c r="E116" t="s">
         <v>187</v>
       </c>
-      <c r="F116" s="1">
-        <v>102300000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>65</v>
       </c>
@@ -3394,11 +3052,8 @@
       <c r="E117" t="s">
         <v>188</v>
       </c>
-      <c r="F117" s="1">
-        <v>90200000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -3414,11 +3069,8 @@
       <c r="E118" t="s">
         <v>189</v>
       </c>
-      <c r="F118" s="1">
-        <v>94600000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>67</v>
       </c>
@@ -3434,11 +3086,8 @@
       <c r="E119" t="s">
         <v>190</v>
       </c>
-      <c r="F119" s="1">
-        <v>117700000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>68</v>
       </c>
@@ -3454,11 +3103,8 @@
       <c r="E120" t="s">
         <v>191</v>
       </c>
-      <c r="F120" s="1">
-        <v>123200000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>69</v>
       </c>
@@ -3474,11 +3120,8 @@
       <c r="E121" t="s">
         <v>185</v>
       </c>
-      <c r="F121" s="1">
-        <v>96800000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -3494,11 +3137,8 @@
       <c r="E122" t="s">
         <v>186</v>
       </c>
-      <c r="F122" s="1">
-        <v>107800000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>71</v>
       </c>
@@ -3514,11 +3154,8 @@
       <c r="E123" t="s">
         <v>187</v>
       </c>
-      <c r="F123" s="1">
-        <v>78100000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>72</v>
       </c>
@@ -3534,11 +3171,8 @@
       <c r="E124" t="s">
         <v>188</v>
       </c>
-      <c r="F124" s="1">
-        <v>103400000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>73</v>
       </c>
@@ -3554,11 +3188,8 @@
       <c r="E125" t="s">
         <v>189</v>
       </c>
-      <c r="F125" s="1">
-        <v>136400000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>74</v>
       </c>
@@ -3574,11 +3205,8 @@
       <c r="E126" t="s">
         <v>190</v>
       </c>
-      <c r="F126" s="1">
-        <v>103400000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>75</v>
       </c>
@@ -3594,16 +3222,13 @@
       <c r="E127" t="s">
         <v>191</v>
       </c>
-      <c r="F127" s="1">
-        <v>117700000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>76</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128">
         <v>2021</v>
@@ -3615,7 +3240,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -3631,11 +3256,8 @@
       <c r="E129" t="s">
         <v>186</v>
       </c>
-      <c r="F129" s="1">
-        <v>103400000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>78</v>
       </c>
@@ -3651,11 +3273,8 @@
       <c r="E130" t="s">
         <v>187</v>
       </c>
-      <c r="F130" s="1">
-        <v>96800000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -3671,11 +3290,8 @@
       <c r="E131" t="s">
         <v>188</v>
       </c>
-      <c r="F131" s="1">
-        <v>85800000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>80</v>
       </c>
@@ -3691,11 +3307,8 @@
       <c r="E132" t="s">
         <v>189</v>
       </c>
-      <c r="F132" s="1">
-        <v>96800000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -3711,11 +3324,8 @@
       <c r="E133" t="s">
         <v>190</v>
       </c>
-      <c r="F133" s="1">
-        <v>82500000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>82</v>
       </c>
@@ -3731,11 +3341,8 @@
       <c r="E134" t="s">
         <v>191</v>
       </c>
-      <c r="F134" s="1">
-        <v>95700000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>83</v>
       </c>
@@ -3746,13 +3353,13 @@
         <v>2010</v>
       </c>
       <c r="D135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E135" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>84</v>
       </c>
@@ -3768,11 +3375,8 @@
       <c r="E136" t="s">
         <v>186</v>
       </c>
-      <c r="F136" s="1">
-        <v>115500000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -3788,11 +3392,8 @@
       <c r="E137" t="s">
         <v>187</v>
       </c>
-      <c r="F137" s="1">
-        <v>90200000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>86</v>
       </c>
@@ -3808,11 +3409,8 @@
       <c r="E138" t="s">
         <v>188</v>
       </c>
-      <c r="F138" s="1">
-        <v>102300000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -3828,11 +3426,8 @@
       <c r="E139" t="s">
         <v>189</v>
       </c>
-      <c r="F139" s="1">
-        <v>81400000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -3848,11 +3443,8 @@
       <c r="E140" t="s">
         <v>190</v>
       </c>
-      <c r="F140" s="1">
-        <v>105600000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>89</v>
       </c>
@@ -3868,11 +3460,8 @@
       <c r="E141" t="s">
         <v>191</v>
       </c>
-      <c r="F141" s="1">
-        <v>132000000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>90</v>
       </c>
@@ -3888,11 +3477,8 @@
       <c r="E142" t="s">
         <v>185</v>
       </c>
-      <c r="F142" s="1">
-        <v>107800000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>91</v>
       </c>
@@ -3908,11 +3494,8 @@
       <c r="E143" t="s">
         <v>186</v>
       </c>
-      <c r="F143" s="1">
-        <v>118800000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>92</v>
       </c>
@@ -3928,11 +3511,8 @@
       <c r="E144" t="s">
         <v>187</v>
       </c>
-      <c r="F144" s="1">
-        <v>119900000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>93</v>
       </c>
@@ -3948,11 +3528,8 @@
       <c r="E145" t="s">
         <v>188</v>
       </c>
-      <c r="F145" s="1">
-        <v>106700000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>94</v>
       </c>
@@ -3968,11 +3545,8 @@
       <c r="E146" t="s">
         <v>189</v>
       </c>
-      <c r="F146" s="1">
-        <v>106700000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>95</v>
       </c>
@@ -3988,11 +3562,8 @@
       <c r="E147" t="s">
         <v>190</v>
       </c>
-      <c r="F147" s="1">
-        <v>93500000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>96</v>
       </c>
@@ -4008,11 +3579,8 @@
       <c r="E148" t="s">
         <v>191</v>
       </c>
-      <c r="F148" s="1">
-        <v>108900000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>97</v>
       </c>
@@ -4023,16 +3591,13 @@
         <v>2019</v>
       </c>
       <c r="D149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E149" t="s">
-        <v>201</v>
-      </c>
-      <c r="F149" s="1">
-        <v>89100000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>98</v>
       </c>
@@ -4048,11 +3613,8 @@
       <c r="E150" t="s">
         <v>186</v>
       </c>
-      <c r="F150" s="1">
-        <v>84700000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -4067,9 +3629,6 @@
       </c>
       <c r="E151" t="s">
         <v>187</v>
-      </c>
-      <c r="F151" s="1">
-        <v>113300000</v>
       </c>
     </row>
   </sheetData>
@@ -4086,7 +3645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765EE1E2-5B0C-4C12-BDDC-3026FD2BBF7E}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
